--- a/scripts/metadata.xlsx
+++ b/scripts/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SCED-tools\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A6CD0-052F-4912-A84F-6E86A0F8FE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595EDDF1-A157-409C-BBE3-B490A29E9D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="690" windowWidth="19050" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="671">
   <si>
     <t>#</t>
   </si>
@@ -2086,9 +2086,6 @@
 }</t>
   </si>
   <si>
-    <t>Delta Diving</t>
-  </si>
-  <si>
     <t>{
   "id": "CP114",
   "type": "Act",
@@ -5261,6 +5258,9 @@
   </si>
   <si>
     <t>Completionist</t>
+  </si>
+  <si>
+    <t>Delta Delving</t>
   </si>
 </sst>
 </file>
@@ -5769,8 +5769,8 @@
   <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5819,9 +5819,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
@@ -5995,7 +5997,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>34</v>
@@ -6203,9 +6205,11 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
@@ -6829,9 +6833,11 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="2" t="s">
         <v>136</v>
       </c>
@@ -7577,9 +7583,11 @@
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="4"/>
       <c r="F84" s="2" t="s">
         <v>213</v>
       </c>
@@ -8121,9 +8129,11 @@
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E110" s="4"/>
       <c r="F110" s="2" t="s">
         <v>265</v>
       </c>
@@ -8229,13 +8239,13 @@
         <v>20</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>275</v>
+        <v>670</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G115" s="5"/>
     </row>
@@ -8251,13 +8261,13 @@
         <v>20</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G116" s="5"/>
     </row>
@@ -8273,13 +8283,13 @@
         <v>20</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G117" s="5"/>
     </row>
@@ -8295,14 +8305,14 @@
         <v>30</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8317,14 +8327,14 @@
         <v>30</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8339,14 +8349,14 @@
         <v>30</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8361,11 +8371,11 @@
         <v>30</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G121" s="5"/>
     </row>
@@ -8381,14 +8391,14 @@
         <v>30</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8403,14 +8413,14 @@
         <v>30</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8425,14 +8435,14 @@
         <v>30</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8447,14 +8457,14 @@
         <v>30</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8469,14 +8479,14 @@
         <v>30</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8491,14 +8501,14 @@
         <v>30</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8513,14 +8523,14 @@
         <v>30</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8535,11 +8545,11 @@
         <v>30</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G129" s="5"/>
     </row>
@@ -8555,11 +8565,11 @@
         <v>30</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G130" s="5"/>
     </row>
@@ -8575,11 +8585,11 @@
         <v>30</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G131" s="5"/>
     </row>
@@ -8595,11 +8605,11 @@
         <v>30</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G132" s="5"/>
     </row>
@@ -8615,11 +8625,11 @@
         <v>30</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G133" s="5"/>
     </row>
@@ -8635,11 +8645,11 @@
         <v>30</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G134" s="5"/>
     </row>
@@ -8659,10 +8669,10 @@
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8681,10 +8691,10 @@
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8702,10 +8712,10 @@
         <v>37</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="G137" s="5"/>
     </row>
@@ -8724,10 +8734,10 @@
         <v>37</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="G138" s="5"/>
     </row>
@@ -8746,10 +8756,10 @@
         <v>50</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G139" s="5"/>
     </row>
@@ -8765,11 +8775,11 @@
         <v>53</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G140" s="5"/>
     </row>
@@ -8785,11 +8795,11 @@
         <v>53</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G141" s="5"/>
     </row>
@@ -8805,13 +8815,13 @@
         <v>49</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="G142" s="5"/>
     </row>
@@ -8830,10 +8840,10 @@
         <v>57</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G143" s="5"/>
     </row>
@@ -8849,11 +8859,11 @@
         <v>49</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G144" s="5"/>
     </row>
@@ -8869,11 +8879,11 @@
         <v>119</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G145" s="5"/>
     </row>
@@ -8889,13 +8899,13 @@
         <v>119</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -8911,13 +8921,13 @@
         <v>119</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G147" s="5"/>
     </row>
@@ -8933,11 +8943,11 @@
         <v>49</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G148" s="5"/>
     </row>
@@ -8953,11 +8963,11 @@
         <v>119</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G149" s="5"/>
     </row>
@@ -8973,11 +8983,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="G150" s="5"/>
     </row>
@@ -8993,13 +9005,13 @@
         <v>10</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G151" s="5"/>
     </row>
@@ -9015,13 +9027,13 @@
         <v>10</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G152" s="5"/>
     </row>
@@ -9037,13 +9049,13 @@
         <v>10</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G153" s="5"/>
     </row>
@@ -9059,13 +9071,13 @@
         <v>20</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G154" s="5"/>
     </row>
@@ -9081,13 +9093,13 @@
         <v>20</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G155" s="5"/>
     </row>
@@ -9103,13 +9115,13 @@
         <v>20</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G156" s="5"/>
     </row>
@@ -9125,13 +9137,13 @@
         <v>20</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="F157" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="G157" s="5"/>
     </row>
@@ -9147,14 +9159,14 @@
         <v>30</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9169,11 +9181,11 @@
         <v>30</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G159" s="5"/>
     </row>
@@ -9189,11 +9201,11 @@
         <v>30</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G160" s="5"/>
     </row>
@@ -9212,10 +9224,10 @@
         <v>93</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="G161" s="5"/>
     </row>
@@ -9234,10 +9246,10 @@
         <v>99</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="G162" s="5"/>
     </row>
@@ -9256,10 +9268,10 @@
         <v>96</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="G163" s="5"/>
     </row>
@@ -9278,10 +9290,10 @@
         <v>102</v>
       </c>
       <c r="E164" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="G164" s="5"/>
     </row>
@@ -9300,10 +9312,10 @@
         <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="G165" s="5"/>
     </row>
@@ -9322,10 +9334,10 @@
         <v>105</v>
       </c>
       <c r="E166" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="G166" s="5"/>
     </row>
@@ -9344,10 +9356,10 @@
         <v>108</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="G167" s="5"/>
     </row>
@@ -9366,10 +9378,10 @@
         <v>114</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="G168" s="5"/>
     </row>
@@ -9385,13 +9397,13 @@
         <v>49</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="G169" s="5"/>
     </row>
@@ -9407,13 +9419,13 @@
         <v>49</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="G170" s="5"/>
     </row>
@@ -9429,11 +9441,11 @@
         <v>119</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G171" s="5"/>
     </row>
@@ -9449,11 +9461,11 @@
         <v>119</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G172" s="5"/>
     </row>
@@ -9469,11 +9481,11 @@
         <v>49</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G173" s="5"/>
     </row>
@@ -9489,11 +9501,11 @@
         <v>119</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G174" s="5"/>
     </row>
@@ -9509,11 +9521,11 @@
         <v>119</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G175" s="5"/>
     </row>
@@ -9529,11 +9541,11 @@
         <v>119</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G176" s="5"/>
     </row>
@@ -9549,11 +9561,11 @@
         <v>49</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G177" s="5"/>
     </row>
@@ -9569,11 +9581,11 @@
         <v>49</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G178" s="5"/>
     </row>
@@ -9589,11 +9601,11 @@
         <v>49</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G179" s="5"/>
     </row>
@@ -9609,11 +9621,13 @@
         <v>7</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="G180" s="5"/>
     </row>
@@ -9629,13 +9643,13 @@
         <v>10</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G181" s="5"/>
     </row>
@@ -9651,13 +9665,13 @@
         <v>10</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G182" s="5"/>
     </row>
@@ -9673,13 +9687,13 @@
         <v>10</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G183" s="5"/>
     </row>
@@ -9695,13 +9709,13 @@
         <v>20</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G184" s="5"/>
     </row>
@@ -9717,13 +9731,13 @@
         <v>20</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>64</v>
@@ -9741,13 +9755,13 @@
         <v>20</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G186" s="5"/>
     </row>
@@ -9763,11 +9777,11 @@
         <v>30</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G187" s="5"/>
     </row>
@@ -9783,11 +9797,11 @@
         <v>30</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G188" s="5"/>
     </row>
@@ -9803,11 +9817,11 @@
         <v>30</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G189" s="5"/>
     </row>
@@ -9823,11 +9837,11 @@
         <v>30</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G190" s="5"/>
     </row>
@@ -9843,11 +9857,11 @@
         <v>30</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G191" s="5"/>
     </row>
@@ -9863,11 +9877,11 @@
         <v>30</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G192" s="5"/>
     </row>
@@ -9883,11 +9897,11 @@
         <v>30</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G193" s="5"/>
     </row>
@@ -9903,11 +9917,11 @@
         <v>30</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G194" s="5"/>
     </row>
@@ -9923,11 +9937,11 @@
         <v>30</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G195" s="5"/>
     </row>
@@ -9943,11 +9957,11 @@
         <v>30</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G196" s="5"/>
     </row>
@@ -9963,11 +9977,11 @@
         <v>53</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G197" s="5"/>
     </row>
@@ -9983,11 +9997,11 @@
         <v>53</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G198" s="5"/>
     </row>
@@ -10003,16 +10017,16 @@
         <v>53</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F199" s="2" t="s">
+      <c r="G199" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10027,11 +10041,11 @@
         <v>53</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G200" s="5"/>
     </row>
@@ -10047,11 +10061,11 @@
         <v>53</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G201" s="5"/>
     </row>
@@ -10067,11 +10081,11 @@
         <v>53</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G202" s="5"/>
     </row>
@@ -10091,7 +10105,7 @@
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>39</v>
@@ -10109,11 +10123,11 @@
         <v>49</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G204" s="5"/>
     </row>
@@ -10129,11 +10143,11 @@
         <v>49</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G205" s="5"/>
     </row>
@@ -10149,11 +10163,11 @@
         <v>119</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G206" s="5"/>
     </row>
@@ -10169,11 +10183,11 @@
         <v>119</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G207" s="5"/>
     </row>
@@ -10189,11 +10203,11 @@
         <v>119</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G208" s="5"/>
     </row>
@@ -10209,11 +10223,11 @@
         <v>119</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G209" s="5"/>
     </row>
@@ -10229,11 +10243,11 @@
         <v>119</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G210" s="5"/>
     </row>
@@ -10249,11 +10263,11 @@
         <v>119</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G211" s="5"/>
     </row>
@@ -10269,11 +10283,13 @@
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="E212" s="4"/>
-      <c r="F212" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="G212" s="5"/>
     </row>
@@ -10289,13 +10305,13 @@
         <v>10</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G213" s="5"/>
     </row>
@@ -10311,13 +10327,13 @@
         <v>10</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G214" s="5"/>
     </row>
@@ -10333,13 +10349,13 @@
         <v>10</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G215" s="5"/>
     </row>
@@ -10355,13 +10371,13 @@
         <v>20</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G216" s="5"/>
     </row>
@@ -10377,13 +10393,13 @@
         <v>20</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G217" s="5"/>
     </row>
@@ -10399,13 +10415,13 @@
         <v>20</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G218" s="5"/>
     </row>
@@ -10421,13 +10437,13 @@
         <v>20</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G219" s="5"/>
     </row>
@@ -10443,13 +10459,13 @@
         <v>20</v>
       </c>
       <c r="D220" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="G220" s="5"/>
     </row>
@@ -10468,10 +10484,10 @@
         <v>69</v>
       </c>
       <c r="E221" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="G221" s="5"/>
     </row>
@@ -10490,10 +10506,10 @@
         <v>72</v>
       </c>
       <c r="E222" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="G222" s="5"/>
     </row>
@@ -10512,10 +10528,10 @@
         <v>75</v>
       </c>
       <c r="E223" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="G223" s="5"/>
     </row>
@@ -10534,10 +10550,10 @@
         <v>78</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="G224" s="5"/>
     </row>
@@ -10556,10 +10572,10 @@
         <v>81</v>
       </c>
       <c r="E225" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="G225" s="5"/>
     </row>
@@ -10578,10 +10594,10 @@
         <v>84</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G226" s="5"/>
     </row>
@@ -10600,10 +10616,10 @@
         <v>87</v>
       </c>
       <c r="E227" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G227" s="5"/>
     </row>
@@ -10622,10 +10638,10 @@
         <v>90</v>
       </c>
       <c r="E228" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="G228" s="5"/>
     </row>
@@ -10644,10 +10660,10 @@
         <v>69</v>
       </c>
       <c r="E229" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>56</v>
@@ -10668,10 +10684,10 @@
         <v>72</v>
       </c>
       <c r="E230" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>56</v>
@@ -10692,10 +10708,10 @@
         <v>75</v>
       </c>
       <c r="E231" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>56</v>
@@ -10716,10 +10732,10 @@
         <v>78</v>
       </c>
       <c r="E232" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>56</v>
@@ -10740,10 +10756,10 @@
         <v>81</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>56</v>
@@ -10764,10 +10780,10 @@
         <v>84</v>
       </c>
       <c r="E234" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>56</v>
@@ -10788,10 +10804,10 @@
         <v>87</v>
       </c>
       <c r="E235" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>56</v>
@@ -10812,10 +10828,10 @@
         <v>90</v>
       </c>
       <c r="E236" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>56</v>
@@ -10833,13 +10849,13 @@
         <v>30</v>
       </c>
       <c r="D237" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="F237" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="G237" s="5"/>
     </row>
@@ -10855,13 +10871,13 @@
         <v>30</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="F238" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="G238" s="5"/>
     </row>
@@ -10877,13 +10893,13 @@
         <v>30</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="F239" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G239" s="5"/>
     </row>
@@ -10899,14 +10915,14 @@
         <v>30</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G240" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10921,11 +10937,11 @@
         <v>53</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>56</v>
@@ -10943,14 +10959,14 @@
         <v>53</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G242" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10965,14 +10981,14 @@
         <v>53</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,13 +11003,13 @@
         <v>49</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="F244" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="G244" s="5"/>
     </row>
@@ -11009,11 +11025,11 @@
         <v>119</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G245" s="5"/>
     </row>
@@ -11029,11 +11045,11 @@
         <v>119</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G246" s="5"/>
     </row>
@@ -11049,11 +11065,11 @@
         <v>119</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G247" s="5"/>
     </row>
@@ -11069,11 +11085,11 @@
         <v>49</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E248" s="4"/>
       <c r="F248" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G248" s="5"/>
     </row>
@@ -11089,11 +11105,11 @@
         <v>49</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G249" s="5"/>
     </row>
@@ -11109,11 +11125,11 @@
         <v>119</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G250" s="5"/>
     </row>
@@ -11129,11 +11145,11 @@
         <v>49</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E251" s="4"/>
       <c r="F251" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G251" s="5"/>
     </row>
@@ -11149,11 +11165,11 @@
         <v>119</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G252" s="5"/>
     </row>
@@ -11169,11 +11185,11 @@
         <v>119</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G253" s="5"/>
     </row>
@@ -11189,11 +11205,11 @@
         <v>49</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E254" s="4"/>
       <c r="F254" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G254" s="5"/>
     </row>
@@ -11209,11 +11225,11 @@
         <v>49</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E255" s="4"/>
       <c r="F255" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G255" s="5"/>
     </row>
@@ -11229,11 +11245,11 @@
         <v>119</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E256" s="4"/>
       <c r="F256" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G256" s="5"/>
     </row>
@@ -11249,11 +11265,11 @@
         <v>119</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G257" s="5"/>
     </row>
@@ -11272,10 +11288,10 @@
         <v>96</v>
       </c>
       <c r="E258" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="G258" s="5"/>
     </row>
@@ -11291,11 +11307,11 @@
         <v>119</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E259" s="4"/>
       <c r="F259" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G259" s="5"/>
     </row>
@@ -11314,10 +11330,10 @@
         <v>114</v>
       </c>
       <c r="E260" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F260" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="G260" s="5"/>
     </row>
@@ -11333,11 +11349,11 @@
         <v>119</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G261" s="5"/>
     </row>
@@ -11353,13 +11369,13 @@
         <v>49</v>
       </c>
       <c r="D262" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="F262" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="G262" s="5"/>
     </row>
@@ -11375,11 +11391,11 @@
         <v>119</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G263" s="5"/>
     </row>
@@ -11398,10 +11414,10 @@
         <v>111</v>
       </c>
       <c r="E264" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="G264" s="5"/>
     </row>
@@ -11420,10 +11436,10 @@
         <v>102</v>
       </c>
       <c r="E265" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="G265" s="5"/>
     </row>
@@ -11439,11 +11455,11 @@
         <v>119</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G266" s="5"/>
     </row>
@@ -11459,11 +11475,11 @@
         <v>119</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G267" s="5"/>
     </row>
@@ -11482,10 +11498,10 @@
         <v>105</v>
       </c>
       <c r="E268" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="G268" s="5"/>
     </row>
@@ -11504,10 +11520,10 @@
         <v>108</v>
       </c>
       <c r="E269" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="G269" s="5"/>
     </row>
@@ -11523,11 +11539,11 @@
         <v>119</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E270" s="4"/>
       <c r="F270" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G270" s="5"/>
     </row>
@@ -11546,10 +11562,10 @@
         <v>99</v>
       </c>
       <c r="E271" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="G271" s="5"/>
     </row>
@@ -11565,11 +11581,11 @@
         <v>119</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G272" s="5"/>
     </row>
@@ -11588,10 +11604,10 @@
         <v>69</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G273" s="5"/>
     </row>
@@ -11610,10 +11626,10 @@
         <v>72</v>
       </c>
       <c r="E274" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="G274" s="5"/>
     </row>
@@ -11632,10 +11648,10 @@
         <v>75</v>
       </c>
       <c r="E275" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F275" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="G275" s="5"/>
     </row>
@@ -11654,10 +11670,10 @@
         <v>78</v>
       </c>
       <c r="E276" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F276" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="G276" s="5"/>
     </row>
@@ -11676,10 +11692,10 @@
         <v>81</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="G277" s="5"/>
     </row>
@@ -11698,10 +11714,10 @@
         <v>84</v>
       </c>
       <c r="E278" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="G278" s="5"/>
     </row>
@@ -11720,10 +11736,10 @@
         <v>87</v>
       </c>
       <c r="E279" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="G279" s="5"/>
     </row>
@@ -11742,10 +11758,10 @@
         <v>90</v>
       </c>
       <c r="E280" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F280" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="G280" s="5"/>
     </row>
@@ -11761,11 +11777,11 @@
         <v>119</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E281" s="4"/>
       <c r="F281" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G281" s="5"/>
     </row>
@@ -11781,11 +11797,11 @@
         <v>119</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G282" s="5"/>
     </row>
@@ -11801,11 +11817,11 @@
         <v>49</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E283" s="4"/>
       <c r="F283" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G283" s="5"/>
     </row>
@@ -11821,11 +11837,11 @@
         <v>119</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E284" s="4"/>
       <c r="F284" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G284" s="5"/>
     </row>
@@ -11841,11 +11857,11 @@
         <v>119</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E285" s="4"/>
       <c r="F285" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G285" s="5"/>
     </row>
@@ -11861,11 +11877,11 @@
         <v>49</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E286" s="4"/>
       <c r="F286" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G286" s="5"/>
     </row>
@@ -11881,11 +11897,11 @@
         <v>49</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E287" s="4"/>
       <c r="F287" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G287" s="5"/>
     </row>
@@ -11901,11 +11917,11 @@
         <v>119</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E288" s="4"/>
       <c r="F288" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G288" s="5"/>
     </row>
@@ -11921,11 +11937,11 @@
         <v>119</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E289" s="4"/>
       <c r="F289" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G289" s="5"/>
     </row>
@@ -11941,14 +11957,14 @@
         <v>119</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E290" s="4"/>
       <c r="F290" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G290" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="G290" s="5" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11963,14 +11979,14 @@
         <v>119</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E291" s="4"/>
       <c r="F291" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11985,14 +12001,14 @@
         <v>119</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E292" s="4"/>
       <c r="F292" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12007,14 +12023,14 @@
         <v>119</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E293" s="4"/>
       <c r="F293" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12029,14 +12045,14 @@
         <v>119</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E294" s="4"/>
       <c r="F294" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12051,14 +12067,14 @@
         <v>119</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E295" s="4"/>
       <c r="F295" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12073,14 +12089,14 @@
         <v>119</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E296" s="4"/>
       <c r="F296" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12095,14 +12111,14 @@
         <v>119</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12117,14 +12133,14 @@
         <v>119</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E298" s="4"/>
       <c r="F298" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12139,14 +12155,14 @@
         <v>119</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E299" s="4"/>
       <c r="F299" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12161,14 +12177,14 @@
         <v>49</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E300" s="4"/>
       <c r="F300" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12183,14 +12199,14 @@
         <v>49</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E301" s="4"/>
       <c r="F301" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12205,14 +12221,14 @@
         <v>119</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E302" s="4"/>
       <c r="F302" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12227,11 +12243,11 @@
         <v>53</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E303" s="4"/>
       <c r="F303" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G303" s="5"/>
     </row>
@@ -12247,11 +12263,11 @@
         <v>53</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E304" s="4"/>
       <c r="F304" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G304" s="5"/>
     </row>
@@ -12267,11 +12283,11 @@
         <v>53</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E305" s="12"/>
       <c r="F305" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G305" s="13"/>
     </row>
@@ -12285,7 +12301,7 @@
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A305" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="E2:E123 E129:E305 D122:D128 D118:D120" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="D118:D120 E111:E123 D122:D128 E3:E19 E21:E47 E49:E83 E85:E109 E129:E149 E151:E179 E181:E211 E213:E305" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
